--- a/data/trans_orig/P24C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>57662</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47533</v>
+        <v>45940</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69303</v>
+        <v>67302</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5086695695730201</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4193192179021794</v>
+        <v>0.4052671087296833</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6113619790035092</v>
+        <v>0.5937092123435082</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -764,19 +764,19 @@
         <v>38082</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29746</v>
+        <v>29931</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46890</v>
+        <v>46693</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5266384435681775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4113503695621609</v>
+        <v>0.4139114118815265</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6484386471992765</v>
+        <v>0.6457213479935432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -785,19 +785,19 @@
         <v>95744</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82217</v>
+        <v>81195</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>108583</v>
+        <v>109681</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.515667812889177</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4428164868990551</v>
+        <v>0.4373130271717194</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5848200724238865</v>
+        <v>0.5907331430066909</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>32430</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22986</v>
+        <v>23596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42619</v>
+        <v>42864</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2860882619331293</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2027764868406126</v>
+        <v>0.2081562839737427</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3759707471207062</v>
+        <v>0.3781299027851774</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -835,19 +835,19 @@
         <v>27894</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18748</v>
+        <v>19312</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35553</v>
+        <v>35966</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3857461835072692</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2592640853949742</v>
+        <v>0.2670686703596837</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4916666601702865</v>
+        <v>0.4973781164806241</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -856,19 +856,19 @@
         <v>60324</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48866</v>
+        <v>48090</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73809</v>
+        <v>74846</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3249015110964472</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2631888423502799</v>
+        <v>0.2590083697782676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3975327022863962</v>
+        <v>0.4031134658719112</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>23266</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15197</v>
+        <v>15716</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32885</v>
+        <v>33133</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2052421684938507</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.134058867443514</v>
+        <v>0.1386390415931635</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2901011046546547</v>
+        <v>0.2922864819042413</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -906,19 +906,19 @@
         <v>6336</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2159</v>
+        <v>2317</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13364</v>
+        <v>14224</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08761537292455335</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02986264493241629</v>
+        <v>0.03203873816137348</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1848168528696448</v>
+        <v>0.1967002332136448</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -927,19 +927,19 @@
         <v>29601</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20441</v>
+        <v>20733</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>41775</v>
+        <v>40379</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1594306760143759</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1100914709220846</v>
+        <v>0.1116671744619759</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2249992715668746</v>
+        <v>0.2174766431180219</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>89377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>76079</v>
+        <v>75492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>105161</v>
+        <v>105477</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.466755206527553</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3973072058809615</v>
+        <v>0.3942419648847218</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5491833673827502</v>
+        <v>0.5508349369016008</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -1052,19 +1052,19 @@
         <v>47927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37715</v>
+        <v>37523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60337</v>
+        <v>58808</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4039129375941476</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3178547404042626</v>
+        <v>0.3162327090533662</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5085036253446108</v>
+        <v>0.4956134359437684</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>135</v>
@@ -1073,19 +1073,19 @@
         <v>137304</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>118673</v>
+        <v>120215</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>154600</v>
+        <v>154263</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4427126160115407</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3826396968346541</v>
+        <v>0.3876102955713346</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.498479381029202</v>
+        <v>0.4973916377326121</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>53838</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>41190</v>
+        <v>40817</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>67534</v>
+        <v>66508</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2811607317031191</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2151059339805509</v>
+        <v>0.2131595252735561</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3526843675549117</v>
+        <v>0.3473265602037487</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>39</v>
@@ -1123,19 +1123,19 @@
         <v>39298</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30287</v>
+        <v>30291</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49916</v>
+        <v>50382</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3311960658444994</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2552512770827295</v>
+        <v>0.2552851884209161</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4206781725825517</v>
+        <v>0.4246082178681552</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>87</v>
@@ -1144,19 +1144,19 @@
         <v>93137</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>77740</v>
+        <v>78621</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>110103</v>
+        <v>110636</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3003035645528984</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.250658938352361</v>
+        <v>0.2535007386398035</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3550078139882827</v>
+        <v>0.3567244573503226</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>48271</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35670</v>
+        <v>36164</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62400</v>
+        <v>62685</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2520840617693279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1862794778979682</v>
+        <v>0.1888601568073379</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.325872296067047</v>
+        <v>0.3273586678583421</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -1194,19 +1194,19 @@
         <v>31431</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22542</v>
+        <v>22648</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41221</v>
+        <v>40809</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.264890996561353</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1899775754128988</v>
+        <v>0.1908718181235613</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3473982755629944</v>
+        <v>0.3439279396586153</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1215,19 +1215,19 @@
         <v>79702</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63577</v>
+        <v>63878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96820</v>
+        <v>96755</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2569838194355609</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2049911897094402</v>
+        <v>0.2059622402441255</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3121775119696529</v>
+        <v>0.3119678347514014</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>99443</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87015</v>
+        <v>86853</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>110220</v>
+        <v>109879</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6726447357977307</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5885792925931919</v>
+        <v>0.5874820831545721</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7455418164969079</v>
+        <v>0.7432365828811351</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>69</v>
@@ -1340,19 +1340,19 @@
         <v>68814</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>59950</v>
+        <v>59517</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76902</v>
+        <v>76775</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7252087176805972</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6317862147811457</v>
+        <v>0.6272259430235452</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8104417649773157</v>
+        <v>0.8091013055689942</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>167</v>
@@ -1361,19 +1361,19 @@
         <v>168257</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>153364</v>
+        <v>154300</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>181793</v>
+        <v>182770</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6931934044077216</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6318338128706533</v>
+        <v>0.6356926443019686</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7489587228944713</v>
+        <v>0.7529826190155414</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>38531</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28455</v>
+        <v>29768</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49960</v>
+        <v>50916</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2606299259682583</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1924708740493878</v>
+        <v>0.2013557266308561</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.337935089747234</v>
+        <v>0.3444017556103975</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1411,19 +1411,19 @@
         <v>20077</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13123</v>
+        <v>13035</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28459</v>
+        <v>28413</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2115858414209831</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1383021165714475</v>
+        <v>0.137368679021785</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2999191289616865</v>
+        <v>0.2994347623682561</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -1432,19 +1432,19 @@
         <v>58608</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46713</v>
+        <v>45076</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73391</v>
+        <v>73113</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2414572795182977</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1924498511337821</v>
+        <v>0.1857073530331463</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3023585039600472</v>
+        <v>0.3012134605448966</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>9865</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5014</v>
+        <v>4990</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18752</v>
+        <v>18519</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06672533823401108</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03391279430539373</v>
+        <v>0.0337522584290303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1268378880253232</v>
+        <v>0.1252658215966881</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1482,19 +1482,19 @@
         <v>5998</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2619</v>
+        <v>2014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12028</v>
+        <v>12021</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06320544089841956</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02760292551187003</v>
+        <v>0.0212249901442364</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1267605251179386</v>
+        <v>0.1266799129280127</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -1503,19 +1503,19 @@
         <v>15862</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9554</v>
+        <v>8923</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24965</v>
+        <v>24749</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0653493160739807</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03935928780211725</v>
+        <v>0.03675954229895331</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1028509666934596</v>
+        <v>0.1019617790604419</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>107593</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94557</v>
+        <v>95142</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120443</v>
+        <v>120867</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6310945113306011</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5546306933424388</v>
+        <v>0.5580589731110358</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7064629035640599</v>
+        <v>0.7089521867647379</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -1628,19 +1628,19 @@
         <v>58861</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48787</v>
+        <v>48629</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68713</v>
+        <v>68550</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.559417436539926</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4636702533975811</v>
+        <v>0.4621652548069934</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6530500575336777</v>
+        <v>0.6514969342824134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>169</v>
@@ -1649,19 +1649,19 @@
         <v>166455</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>148968</v>
+        <v>149642</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>181251</v>
+        <v>182205</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6037400976232626</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5403143176021403</v>
+        <v>0.5427599439129002</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.657406247422713</v>
+        <v>0.6608677197814045</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>34924</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25708</v>
+        <v>24644</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47435</v>
+        <v>46825</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2048474317143415</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1507890077221194</v>
+        <v>0.144549451633556</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2782316597174592</v>
+        <v>0.2746555794675929</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1699,19 +1699,19 @@
         <v>28032</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19566</v>
+        <v>20269</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37451</v>
+        <v>37912</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2664150042485625</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1859572317465566</v>
+        <v>0.1926318766005545</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3559360328233281</v>
+        <v>0.3603156857779372</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>62</v>
@@ -1720,19 +1720,19 @@
         <v>62956</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48946</v>
+        <v>50276</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>77938</v>
+        <v>79231</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.22834371493985</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1775305520614805</v>
+        <v>0.1823538869423156</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.282684691927681</v>
+        <v>0.287376001819432</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>27970</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18725</v>
+        <v>19207</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38269</v>
+        <v>38400</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1640580569550574</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1098327928932371</v>
+        <v>0.1126597301776359</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2244702259880715</v>
+        <v>0.2252364501513791</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -1770,19 +1770,19 @@
         <v>18326</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10907</v>
+        <v>11357</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26465</v>
+        <v>26624</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1741675592115114</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1036568609831419</v>
+        <v>0.1079328441981364</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2515188696585356</v>
+        <v>0.2530328463472566</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>46</v>
@@ -1791,19 +1791,19 @@
         <v>46296</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>35074</v>
+        <v>34362</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>58955</v>
+        <v>60086</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1679161874368874</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1272158360972188</v>
+        <v>0.1246336691290467</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2138339170978645</v>
+        <v>0.2179353841488434</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>15007</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9187</v>
+        <v>9015</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22863</v>
+        <v>22899</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.177960480883388</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.108943191097175</v>
+        <v>0.1069060481109055</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2711181141219356</v>
+        <v>0.2715393071174867</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1916,19 +1916,19 @@
         <v>8674</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3975</v>
+        <v>3940</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14759</v>
+        <v>15420</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1457150066117449</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06678366975081598</v>
+        <v>0.06618150000628603</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2479451983944639</v>
+        <v>0.2590452250828976</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -1937,19 +1937,19 @@
         <v>23681</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15985</v>
+        <v>16167</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>33367</v>
+        <v>33500</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1646175050089378</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1111157632907609</v>
+        <v>0.1123820413402118</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.231948496239958</v>
+        <v>0.2328744249349707</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>54039</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45556</v>
+        <v>45544</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>61761</v>
+        <v>62372</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6408097672171921</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5402118296873697</v>
+        <v>0.5400776423373357</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7323814397383442</v>
+        <v>0.7396297631636892</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>38</v>
@@ -1987,19 +1987,19 @@
         <v>39594</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31966</v>
+        <v>31225</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46536</v>
+        <v>46106</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6651572490939485</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5370103072696657</v>
+        <v>0.5245597890056051</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.781769709386384</v>
+        <v>0.7745570692522381</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>92</v>
@@ -2008,19 +2008,19 @@
         <v>93633</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>81195</v>
+        <v>80898</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>104625</v>
+        <v>103853</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6508846031631116</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5644251284976295</v>
+        <v>0.5623596508171381</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7272969271704662</v>
+        <v>0.7219305789047052</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>15283</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9079</v>
+        <v>9496</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22817</v>
+        <v>23375</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.18122975189942</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1076638203298272</v>
+        <v>0.1126084592656044</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2705721428692977</v>
+        <v>0.2771864100349308</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2058,19 +2058,19 @@
         <v>11258</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6003</v>
+        <v>6062</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17936</v>
+        <v>17867</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1891277442943066</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1008424288712729</v>
+        <v>0.1018337765674991</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3013079636058417</v>
+        <v>0.3001511016310714</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2079,19 +2079,19 @@
         <v>26541</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18457</v>
+        <v>18269</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36287</v>
+        <v>36449</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1844978918279506</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.128303655272135</v>
+        <v>0.1269942775456211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.25224403726342</v>
+        <v>0.2533745735258087</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>87705</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>76823</v>
+        <v>77099</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>97450</v>
+        <v>97593</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6998059978995073</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.612972890803189</v>
+        <v>0.6151767223097763</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7775611953040494</v>
+        <v>0.7786998012780288</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -2204,19 +2204,19 @@
         <v>40067</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>32376</v>
+        <v>31694</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47537</v>
+        <v>47020</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6262355860074814</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5060395435332685</v>
+        <v>0.4953687924592311</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7430014795911755</v>
+        <v>0.7349215755885998</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>125</v>
@@ -2225,19 +2225,19 @@
         <v>127771</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>114823</v>
+        <v>114879</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>139964</v>
+        <v>139888</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6749416768189549</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6065443423075211</v>
+        <v>0.6068390104673604</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7393480237466514</v>
+        <v>0.7389460989390114</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>25800</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17764</v>
+        <v>17197</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35921</v>
+        <v>35298</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2058634845760712</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1417421753984069</v>
+        <v>0.1372174720029098</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.286614063649174</v>
+        <v>0.2816478736705306</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -2275,19 +2275,19 @@
         <v>12021</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7081</v>
+        <v>6833</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19549</v>
+        <v>19168</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1878856967846028</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1106808275928583</v>
+        <v>0.1068056529468224</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3055496272367249</v>
+        <v>0.2995903927341134</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>38</v>
@@ -2296,19 +2296,19 @@
         <v>37821</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27487</v>
+        <v>28294</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>48162</v>
+        <v>49939</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1997875978646968</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1451984692050152</v>
+        <v>0.1494591903909625</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2544095748324069</v>
+        <v>0.2638009617327028</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>11822</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6592</v>
+        <v>6643</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19728</v>
+        <v>19967</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09433051752442145</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05259980747113313</v>
+        <v>0.05300874811630783</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1574090783880579</v>
+        <v>0.1593152623933571</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2346,19 +2346,19 @@
         <v>11893</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6580</v>
+        <v>6718</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18904</v>
+        <v>18884</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1858787172079158</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1028369505955138</v>
+        <v>0.1049985091486254</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2954610496343527</v>
+        <v>0.2951623052499822</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2367,19 +2367,19 @@
         <v>23715</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15784</v>
+        <v>15638</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>35272</v>
+        <v>33090</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1252707253163484</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08337727200363793</v>
+        <v>0.08260882236623364</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1863204998918408</v>
+        <v>0.1747961020832763</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>106002</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>90670</v>
+        <v>91189</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>122188</v>
+        <v>122039</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4511191048440468</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3858688009679114</v>
+        <v>0.3880768054635255</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5200006656695441</v>
+        <v>0.5193684270984217</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>67</v>
@@ -2492,19 +2492,19 @@
         <v>66783</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>56354</v>
+        <v>54629</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>80990</v>
+        <v>79181</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4138940109737611</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3492621748454817</v>
+        <v>0.3385652970609581</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5019446459931807</v>
+        <v>0.4907308101043356</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>174</v>
@@ -2513,19 +2513,19 @@
         <v>172785</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>155054</v>
+        <v>153210</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>192144</v>
+        <v>192837</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4359640883373493</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3912263188691886</v>
+        <v>0.3865739291718454</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4848105563787225</v>
+        <v>0.4865574448711003</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>77679</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>62875</v>
+        <v>63106</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>92174</v>
+        <v>93031</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3305843846055403</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.267580101268875</v>
+        <v>0.2685639227512645</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3922718182287874</v>
+        <v>0.3959164950167414</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>55</v>
@@ -2563,19 +2563,19 @@
         <v>57068</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>44840</v>
+        <v>45449</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>68954</v>
+        <v>70148</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3536869890164684</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.277899207679152</v>
+        <v>0.2816762444888762</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4273494571399604</v>
+        <v>0.4347493257861015</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>129</v>
@@ -2584,19 +2584,19 @@
         <v>134748</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>116622</v>
+        <v>115524</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>154255</v>
+        <v>154293</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3399898773738149</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2942545619302416</v>
+        <v>0.2914851581244888</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3892086537556688</v>
+        <v>0.3893044600445916</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>51294</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>39165</v>
+        <v>40353</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>65395</v>
+        <v>65397</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2182965105504129</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1666780647269096</v>
+        <v>0.1717305976662423</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2783031047951297</v>
+        <v>0.2783115919561669</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -2634,19 +2634,19 @@
         <v>37502</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>27104</v>
+        <v>26127</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>49600</v>
+        <v>48746</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2324190000097705</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1679823624069318</v>
+        <v>0.1619243107372915</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3073996891141785</v>
+        <v>0.3021071766864092</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>85</v>
@@ -2655,19 +2655,19 @@
         <v>88796</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>72424</v>
+        <v>73038</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>105459</v>
+        <v>105324</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2240460342888357</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1827364757189903</v>
+        <v>0.1842872664683178</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2660895902301325</v>
+        <v>0.2657498127352687</v>
       </c>
     </row>
     <row r="31">
@@ -2759,19 +2759,19 @@
         <v>37090</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26845</v>
+        <v>27390</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>50133</v>
+        <v>49624</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1175261029203331</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08506447837314686</v>
+        <v>0.0867908909552389</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1588570748053008</v>
+        <v>0.1572439283404639</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2780,19 +2780,19 @@
         <v>19005</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11577</v>
+        <v>12036</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30818</v>
+        <v>29265</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1019730305866286</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0621214385090264</v>
+        <v>0.06457944084212268</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1653614216836651</v>
+        <v>0.1570300615321816</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -2801,19 +2801,19 @@
         <v>56094</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>43826</v>
+        <v>41374</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>74292</v>
+        <v>72296</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1117514863524975</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08731084854034819</v>
+        <v>0.08242530067423769</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1480059586880733</v>
+        <v>0.144029910139535</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>193976</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>176067</v>
+        <v>177221</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>212362</v>
+        <v>212475</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6146536415120208</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5579040107704406</v>
+        <v>0.561562223865879</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6729145214030045</v>
+        <v>0.6732705637934702</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>119</v>
@@ -2851,19 +2851,19 @@
         <v>122946</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>109645</v>
+        <v>108382</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>135563</v>
+        <v>134902</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.6596952157925249</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5883259376704334</v>
+        <v>0.5815506216966609</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7273921744908173</v>
+        <v>0.7238460613515996</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>306</v>
@@ -2872,19 +2872,19 @@
         <v>316922</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>295588</v>
+        <v>294398</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>340052</v>
+        <v>339338</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6313768853509858</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5888758744376756</v>
+        <v>0.5865042292815318</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6774569903841806</v>
+        <v>0.6760363478684267</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>84520</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>69444</v>
+        <v>69116</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>102653</v>
+        <v>102465</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.267820255567646</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.220049131128373</v>
+        <v>0.2190077442176704</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3252779239553517</v>
+        <v>0.3246808897742793</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>42</v>
@@ -2922,19 +2922,19 @@
         <v>44417</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>32919</v>
+        <v>33144</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>57077</v>
+        <v>58188</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2383317536208465</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1766333034841908</v>
+        <v>0.1778391796687279</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3062614947114942</v>
+        <v>0.3122193464479379</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>124</v>
@@ -2943,19 +2943,19 @@
         <v>128937</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>109680</v>
+        <v>109453</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>151083</v>
+        <v>150351</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2568716282965168</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2185069431062143</v>
+        <v>0.218053833414886</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3009899827553248</v>
+        <v>0.2995313497339549</v>
       </c>
     </row>
     <row r="35">
@@ -3047,19 +3047,19 @@
         <v>599880</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>562721</v>
+        <v>560642</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>638828</v>
+        <v>634813</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4336306500355889</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4067701856149983</v>
+        <v>0.4052668244451621</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4617850758257695</v>
+        <v>0.4588823127857108</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>345</v>
@@ -3068,19 +3068,19 @@
         <v>348212</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>321427</v>
+        <v>320269</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>378031</v>
+        <v>378837</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4038168159340124</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3727549224268473</v>
+        <v>0.3714111347697274</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.438397603245874</v>
+        <v>0.439332134927057</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>940</v>
@@ -3089,19 +3089,19 @@
         <v>948092</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>907340</v>
+        <v>898248</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>993718</v>
+        <v>996342</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4221827140007622</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4040359782337771</v>
+        <v>0.3999870240692819</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.442499555886773</v>
+        <v>0.4436680100291157</v>
       </c>
     </row>
     <row r="37">
@@ -3118,19 +3118,19 @@
         <v>511218</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>475288</v>
+        <v>477562</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>547389</v>
+        <v>547299</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3695406271987067</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3435675659399393</v>
+        <v>0.3452114433732053</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3956872241733533</v>
+        <v>0.3956221672669968</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>337</v>
@@ -3139,19 +3139,19 @@
         <v>346931</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>317708</v>
+        <v>316751</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>377229</v>
+        <v>373202</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4023310659015357</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3684413118614261</v>
+        <v>0.3673316944972442</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4374669535623879</v>
+        <v>0.4327970684144466</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>827</v>
@@ -3160,19 +3160,19 @@
         <v>858150</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>814757</v>
+        <v>809114</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>902143</v>
+        <v>902344</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3821315218667643</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3628086799399053</v>
+        <v>0.3602962876335734</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4017214536754578</v>
+        <v>0.4018109407761856</v>
       </c>
     </row>
     <row r="38">
@@ -3189,19 +3189,19 @@
         <v>272291</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>240549</v>
+        <v>244322</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>302147</v>
+        <v>304972</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1968287227657044</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1738839296541113</v>
+        <v>0.1766113418896383</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2184104984842893</v>
+        <v>0.2204527234744067</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>162</v>
@@ -3210,19 +3210,19 @@
         <v>167159</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>144858</v>
+        <v>144240</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>192437</v>
+        <v>191370</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1938521181644519</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1679895889666733</v>
+        <v>0.1672736044287819</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.223166218685228</v>
+        <v>0.2219291128392885</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>424</v>
@@ -3231,19 +3231,19 @@
         <v>439450</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>403801</v>
+        <v>401622</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>472766</v>
+        <v>480985</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1956857641324735</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1798115688105446</v>
+        <v>0.1788412312507267</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2105211043563439</v>
+        <v>0.2141813443244555</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         <v>11627</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5760</v>
+        <v>5657</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21290</v>
+        <v>20607</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08519191930374898</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04220473124842938</v>
+        <v>0.04144603986001298</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.155994791166908</v>
+        <v>0.1509877894698635</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3600,19 +3600,19 @@
         <v>9278</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5003</v>
+        <v>4030</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15940</v>
+        <v>16061</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09473901048517433</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0510862771322159</v>
+        <v>0.04115047205355107</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1627662119064699</v>
+        <v>0.1640066864244396</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -3621,19 +3621,19 @@
         <v>20905</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13181</v>
+        <v>13088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32718</v>
+        <v>33007</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08918045886806278</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05623130841120712</v>
+        <v>0.05583318081200488</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1395761714729992</v>
+        <v>0.1408092538971195</v>
       </c>
     </row>
     <row r="5">
@@ -3650,19 +3650,19 @@
         <v>50810</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39907</v>
+        <v>40724</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62161</v>
+        <v>63889</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3722880639054213</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2924036349031658</v>
+        <v>0.2983853358750666</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4554575837693707</v>
+        <v>0.4681182928550719</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -3671,19 +3671,19 @@
         <v>28501</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20018</v>
+        <v>19324</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38711</v>
+        <v>38990</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2910304693075116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2044051246384952</v>
+        <v>0.1973194470971202</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3952882174928668</v>
+        <v>0.3981380671999614</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -3692,19 +3692,19 @@
         <v>79311</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64319</v>
+        <v>63823</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>94422</v>
+        <v>95177</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3383406421414712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2743860429353412</v>
+        <v>0.2722709861273788</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4028064167622576</v>
+        <v>0.4060255818538094</v>
       </c>
     </row>
     <row r="6">
@@ -3721,19 +3721,19 @@
         <v>74043</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63026</v>
+        <v>61143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87281</v>
+        <v>85979</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5425200167908297</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4617932463909018</v>
+        <v>0.4479964014868442</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6395162178605168</v>
+        <v>0.6299716182463864</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>50</v>
@@ -3742,19 +3742,19 @@
         <v>60152</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49629</v>
+        <v>49100</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>68939</v>
+        <v>69852</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6142305202073141</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5067764824776062</v>
+        <v>0.5013778689087375</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7039542426928642</v>
+        <v>0.7132792744467982</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>122</v>
@@ -3763,19 +3763,19 @@
         <v>134195</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>118511</v>
+        <v>117128</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>149279</v>
+        <v>149286</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.572478898990466</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.505569989154217</v>
+        <v>0.4996675236747299</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6368266966986788</v>
+        <v>0.6368574987744197</v>
       </c>
     </row>
     <row r="7">
@@ -3867,19 +3867,19 @@
         <v>23899</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15879</v>
+        <v>15825</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34164</v>
+        <v>34031</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.115959589790666</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07704713692968927</v>
+        <v>0.07678668116738441</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1657692392011589</v>
+        <v>0.1651221120770728</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -3888,19 +3888,19 @@
         <v>21209</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13377</v>
+        <v>13356</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30502</v>
+        <v>32098</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1402542957873003</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08846222766419014</v>
+        <v>0.088322276515915</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2017119371649125</v>
+        <v>0.2122646752740227</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>45</v>
@@ -3909,19 +3909,19 @@
         <v>45108</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>34184</v>
+        <v>34249</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>58759</v>
+        <v>59103</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1262413546295218</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09566967867420526</v>
+        <v>0.09585078944909636</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1644473660414958</v>
+        <v>0.165409730762686</v>
       </c>
     </row>
     <row r="9">
@@ -3938,19 +3938,19 @@
         <v>81000</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>66980</v>
+        <v>66637</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>95951</v>
+        <v>95006</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3930248118363808</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3249981702714903</v>
+        <v>0.3233323326536616</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4655691799340134</v>
+        <v>0.4609837206653036</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>57</v>
@@ -3959,19 +3959,19 @@
         <v>61940</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>49891</v>
+        <v>48913</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>75780</v>
+        <v>74105</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4096103223457293</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.329924726886799</v>
+        <v>0.3234577487286768</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5011310729542513</v>
+        <v>0.4900541283816016</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>133</v>
@@ -3980,19 +3980,19 @@
         <v>142941</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>124434</v>
+        <v>124374</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>161501</v>
+        <v>163016</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4000439673187776</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3482516270231354</v>
+        <v>0.3480832709354673</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4519876422868186</v>
+        <v>0.4562289790858362</v>
       </c>
     </row>
     <row r="10">
@@ -4009,19 +4009,19 @@
         <v>101195</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86486</v>
+        <v>86424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115936</v>
+        <v>116134</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4910155983729532</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4196424472743431</v>
+        <v>0.4193420224617386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5625383242032296</v>
+        <v>0.5635007056649624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -4030,7 +4030,7 @@
         <v>68069</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54973</v>
+        <v>56723</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>81593</v>
@@ -4039,10 +4039,10 @@
         <v>0.4501353818669704</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3635315222848782</v>
+        <v>0.3751044411982306</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5395736234072559</v>
+        <v>0.5395694329306335</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>150</v>
@@ -4051,19 +4051,19 @@
         <v>169264</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149428</v>
+        <v>148085</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>187463</v>
+        <v>188634</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4737146780517006</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4181990024189305</v>
+        <v>0.4144420308851208</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5246484552848384</v>
+        <v>0.5279260294255418</v>
       </c>
     </row>
     <row r="11">
@@ -4155,19 +4155,19 @@
         <v>35561</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25581</v>
+        <v>25466</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46236</v>
+        <v>44861</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.279924952226548</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2013654202212772</v>
+        <v>0.2004596339346645</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.363957610899584</v>
+        <v>0.3531312987259414</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -4176,19 +4176,19 @@
         <v>8080</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3132</v>
+        <v>3292</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15384</v>
+        <v>15202</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09343231892964901</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03621119002054197</v>
+        <v>0.03806620582684217</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.177896353347764</v>
+        <v>0.1757862355008353</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -4197,19 +4197,19 @@
         <v>43641</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32302</v>
+        <v>32432</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57378</v>
+        <v>56821</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2043914038546422</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1512837904884156</v>
+        <v>0.1518939293918344</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2687290116019665</v>
+        <v>0.2661190150115406</v>
       </c>
     </row>
     <row r="13">
@@ -4226,19 +4226,19 @@
         <v>55297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44960</v>
+        <v>44738</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66662</v>
+        <v>67368</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.435280108532661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3539152935944145</v>
+        <v>0.3521649721253298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5247422506943217</v>
+        <v>0.5303055929550183</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -4247,19 +4247,19 @@
         <v>51961</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42682</v>
+        <v>42195</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61354</v>
+        <v>61460</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.600855187389535</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.493557347239033</v>
+        <v>0.4879173540647926</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7094718582481679</v>
+        <v>0.7106970751009828</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -4268,19 +4268,19 @@
         <v>107258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>92064</v>
+        <v>93317</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122251</v>
+        <v>122347</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5023415951282592</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.431181459163783</v>
+        <v>0.4370482737409534</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5725606047325434</v>
+        <v>0.5730086809599367</v>
       </c>
     </row>
     <row r="14">
@@ -4297,19 +4297,19 @@
         <v>36179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26571</v>
+        <v>26297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46921</v>
+        <v>46461</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.284794939240791</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2091600318308482</v>
+        <v>0.20700515397222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3693504069565389</v>
+        <v>0.3657296765751066</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -4318,19 +4318,19 @@
         <v>26438</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18264</v>
+        <v>17937</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35996</v>
+        <v>36545</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3057124936808159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2111921653177396</v>
+        <v>0.2074108758821155</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4162396534841776</v>
+        <v>0.4225936161275367</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -4339,19 +4339,19 @@
         <v>62617</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>50641</v>
+        <v>49444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>76516</v>
+        <v>76611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2932670010170986</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2371755722712194</v>
+        <v>0.2315723902908936</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3583623628220318</v>
+        <v>0.3588060536712872</v>
       </c>
     </row>
     <row r="15">
@@ -4443,19 +4443,19 @@
         <v>41272</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30645</v>
+        <v>30408</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52115</v>
+        <v>53549</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3174301463549216</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2356961115273562</v>
+        <v>0.2338724164397234</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4008270322780684</v>
+        <v>0.4118549769153837</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -4464,19 +4464,19 @@
         <v>25713</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17717</v>
+        <v>17574</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35851</v>
+        <v>35508</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2472828873610332</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1703864146087627</v>
+        <v>0.16900740084413</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3447751358325885</v>
+        <v>0.3414747379167799</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -4485,19 +4485,19 @@
         <v>66985</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52577</v>
+        <v>53768</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82753</v>
+        <v>82538</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2862588664320028</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2246865916658867</v>
+        <v>0.2297745321041193</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3536392655076561</v>
+        <v>0.3527223896914656</v>
       </c>
     </row>
     <row r="17">
@@ -4514,19 +4514,19 @@
         <v>53515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>41953</v>
+        <v>41569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>64966</v>
+        <v>65487</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4115934940160032</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.322669254755661</v>
+        <v>0.3197150348103904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4996617319187037</v>
+        <v>0.5036751051833465</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -4535,19 +4535,19 @@
         <v>37544</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>27957</v>
+        <v>28435</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47513</v>
+        <v>48367</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3610566412351766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2688630608156083</v>
+        <v>0.2734560366604578</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4569286161230833</v>
+        <v>0.4651400061934285</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -4556,19 +4556,19 @@
         <v>91059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75899</v>
+        <v>75513</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>107447</v>
+        <v>107516</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3891364742115411</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3243506028688098</v>
+        <v>0.322699449614909</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4591694623140581</v>
+        <v>0.4594636202493023</v>
       </c>
     </row>
     <row r="18">
@@ -4585,19 +4585,19 @@
         <v>35232</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25527</v>
+        <v>25585</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46025</v>
+        <v>46527</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2709763596290752</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1963361015574008</v>
+        <v>0.1967767263400671</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3539855531075745</v>
+        <v>0.3578500627937893</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -4606,19 +4606,19 @@
         <v>40726</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31437</v>
+        <v>30008</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51347</v>
+        <v>51297</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3916604714037902</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3023296423976118</v>
+        <v>0.28858028167534</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4937960053457845</v>
+        <v>0.493311950057447</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>72</v>
@@ -4627,19 +4627,19 @@
         <v>75958</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>62524</v>
+        <v>61423</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>91332</v>
+        <v>91102</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3246046593564562</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2671912680940739</v>
+        <v>0.2624872056980596</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3903038611577958</v>
+        <v>0.3893201749063674</v>
       </c>
     </row>
     <row r="19">
@@ -4731,19 +4731,19 @@
         <v>9132</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4166</v>
+        <v>4231</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16942</v>
+        <v>16775</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1010570680358389</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04609501593955483</v>
+        <v>0.04681428840470379</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1874739029923261</v>
+        <v>0.1856293345447704</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -4752,19 +4752,19 @@
         <v>5013</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1524</v>
+        <v>1101</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12747</v>
+        <v>12146</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07660973451435231</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02328254045725568</v>
+        <v>0.01682528554003802</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1947885235502725</v>
+        <v>0.1856082582660918</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -4773,19 +4773,19 @@
         <v>14146</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8068</v>
+        <v>7509</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23858</v>
+        <v>23258</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09078913631544255</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05177921371565075</v>
+        <v>0.04819257903734097</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1531271506788147</v>
+        <v>0.1492717949566687</v>
       </c>
     </row>
     <row r="21">
@@ -4802,19 +4802,19 @@
         <v>47335</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37287</v>
+        <v>37767</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>57235</v>
+        <v>56553</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5238080011839406</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4126119668796149</v>
+        <v>0.4179249277510149</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6333542196747887</v>
+        <v>0.6258115627965752</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>40</v>
@@ -4823,19 +4823,19 @@
         <v>39235</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31399</v>
+        <v>31232</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47198</v>
+        <v>47146</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5995632163280211</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4798207007552232</v>
+        <v>0.4772698515139859</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7212559585085944</v>
+        <v>0.7204544843943006</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>84</v>
@@ -4844,19 +4844,19 @@
         <v>86570</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73248</v>
+        <v>72675</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>99969</v>
+        <v>98176</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5556253515661287</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4701187118191468</v>
+        <v>0.46644490635954</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6416224323549562</v>
+        <v>0.6301102471641921</v>
       </c>
     </row>
     <row r="22">
@@ -4873,19 +4873,19 @@
         <v>33900</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25374</v>
+        <v>25292</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44302</v>
+        <v>43528</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3751349307802206</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2807874554771086</v>
+        <v>0.2798746129473232</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4902415207761082</v>
+        <v>0.4816801945394446</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -4894,19 +4894,19 @@
         <v>21191</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13861</v>
+        <v>13875</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29721</v>
+        <v>29650</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3238270491576266</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2118129246003152</v>
+        <v>0.212030329287799</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4541762700528623</v>
+        <v>0.4531011888964714</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -4915,19 +4915,19 @@
         <v>55091</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42259</v>
+        <v>44830</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67959</v>
+        <v>68127</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3535855121184288</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2712243548838256</v>
+        <v>0.2877295848920519</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4361713775860754</v>
+        <v>0.4372501439526364</v>
       </c>
     </row>
     <row r="23">
@@ -5019,19 +5019,19 @@
         <v>16550</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10277</v>
+        <v>10005</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25483</v>
+        <v>25244</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1976327073803417</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.122724709887862</v>
+        <v>0.1194799786183744</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3043079022602192</v>
+        <v>0.3014538905563985</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -5040,19 +5040,19 @@
         <v>5605</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13015</v>
+        <v>12204</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08380208749874604</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02900535806860686</v>
+        <v>0.0289342113113398</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1946060672236422</v>
+        <v>0.1824839262164936</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -5061,19 +5061,19 @@
         <v>22154</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>14417</v>
+        <v>14414</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33054</v>
+        <v>31977</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1470889461822725</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09571536111743557</v>
+        <v>0.09570019014195892</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2194538846684581</v>
+        <v>0.2123049534622951</v>
       </c>
     </row>
     <row r="25">
@@ -5090,19 +5090,19 @@
         <v>37995</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29058</v>
+        <v>28460</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46999</v>
+        <v>46681</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4537265375754878</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.346998349068654</v>
+        <v>0.3398574085207453</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5612546786886018</v>
+        <v>0.5574526170710051</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -5111,19 +5111,19 @@
         <v>41349</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32560</v>
+        <v>33150</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49015</v>
+        <v>49041</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.618263630851665</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4868425676061624</v>
+        <v>0.4956780769562089</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7328908405972564</v>
+        <v>0.733276765548508</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>78</v>
@@ -5132,19 +5132,19 @@
         <v>79344</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66577</v>
+        <v>66419</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>91712</v>
+        <v>90977</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.526785294168626</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4420217220867336</v>
+        <v>0.4409711653824338</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6089026956539668</v>
+        <v>0.6040239453640931</v>
       </c>
     </row>
     <row r="26">
@@ -5161,19 +5161,19 @@
         <v>29195</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20849</v>
+        <v>20449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37852</v>
+        <v>38770</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3486407550441705</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2489724248646293</v>
+        <v>0.2441955499075615</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4520210298725786</v>
+        <v>0.4629823361946021</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -5182,19 +5182,19 @@
         <v>19926</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12807</v>
+        <v>12887</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28078</v>
+        <v>27780</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.297934281649589</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1915021820795247</v>
+        <v>0.1926955355223453</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4198289224830328</v>
+        <v>0.4153775628870978</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>47</v>
@@ -5203,19 +5203,19 @@
         <v>49121</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>37912</v>
+        <v>37601</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>61409</v>
+        <v>61514</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3261257596491015</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2517108863466497</v>
+        <v>0.249641681341672</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4077107994055042</v>
+        <v>0.4084060827527273</v>
       </c>
     </row>
     <row r="27">
@@ -5307,19 +5307,19 @@
         <v>59399</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>46514</v>
+        <v>46654</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>74407</v>
+        <v>74553</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2119940664595618</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1660057548263609</v>
+        <v>0.1665056632707028</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2655562775775378</v>
+        <v>0.2660767895945039</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>33</v>
@@ -5328,19 +5328,19 @@
         <v>35636</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25218</v>
+        <v>25104</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>47186</v>
+        <v>48498</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1831719245681486</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1296223612729795</v>
+        <v>0.1290346866879922</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2425379711741673</v>
+        <v>0.2492842021332707</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>90</v>
@@ -5349,19 +5349,19 @@
         <v>95036</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>76891</v>
+        <v>77909</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>113556</v>
+        <v>113877</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.200182776393516</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1619634212315127</v>
+        <v>0.1641069040737534</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2391935852072564</v>
+        <v>0.2398703873458249</v>
       </c>
     </row>
     <row r="29">
@@ -5378,19 +5378,19 @@
         <v>137003</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>121112</v>
+        <v>119886</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>155880</v>
+        <v>154005</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4889578487778964</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4322441963943173</v>
+        <v>0.4278695067506514</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5563275795180925</v>
+        <v>0.5496372605834891</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>88</v>
@@ -5399,19 +5399,19 @@
         <v>96388</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>81412</v>
+        <v>82025</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>109879</v>
+        <v>110802</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4954429558522467</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4184620962387655</v>
+        <v>0.4216129372368966</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5647869152184198</v>
+        <v>0.5695307439466233</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>218</v>
@@ -5420,19 +5420,19 @@
         <v>233391</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>212763</v>
+        <v>210473</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>257667</v>
+        <v>257566</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.491615440328625</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4481637026601425</v>
+        <v>0.4433394745503441</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5427493666889335</v>
+        <v>0.5425362579123016</v>
       </c>
     </row>
     <row r="30">
@@ -5449,19 +5449,19 @@
         <v>83791</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>68135</v>
+        <v>69384</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>99500</v>
+        <v>102437</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2990480847625417</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2431691137772906</v>
+        <v>0.24762942498979</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3551094595119753</v>
+        <v>0.3655942637128802</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>57</v>
@@ -5470,19 +5470,19 @@
         <v>62525</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>49372</v>
+        <v>49314</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>75672</v>
+        <v>76552</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3213851195796046</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2537777653553329</v>
+        <v>0.2534781876927999</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3889596113092858</v>
+        <v>0.3934813772373163</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>133</v>
@@ -5491,19 +5491,19 @@
         <v>146317</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>125564</v>
+        <v>124578</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>168700</v>
+        <v>168609</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3082017832778591</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2644883559115654</v>
+        <v>0.2624111148007618</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.355349943266925</v>
+        <v>0.3551579771463597</v>
       </c>
     </row>
     <row r="31">
@@ -5595,19 +5595,19 @@
         <v>38337</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>27211</v>
+        <v>27054</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>50736</v>
+        <v>51810</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.131591949222966</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09340268613472483</v>
+        <v>0.09286445319499323</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1741523653454499</v>
+        <v>0.1778376651514594</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -5616,19 +5616,19 @@
         <v>27745</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18504</v>
+        <v>18162</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>39746</v>
+        <v>39530</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1334742195037212</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08901790718965973</v>
+        <v>0.08737215419269714</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1912083143807892</v>
+        <v>0.1901690027445465</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>61</v>
@@ -5637,19 +5637,19 @@
         <v>66082</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>52291</v>
+        <v>50922</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>84648</v>
+        <v>82738</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1323757277731518</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1047497146444143</v>
+        <v>0.102006467760046</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1695681390622454</v>
+        <v>0.1657416527467841</v>
       </c>
     </row>
     <row r="33">
@@ -5666,19 +5666,19 @@
         <v>161584</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>144300</v>
+        <v>144361</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>179002</v>
+        <v>179198</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5546381650555037</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4953108957894689</v>
+        <v>0.4955178285666468</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6144239678642798</v>
+        <v>0.6150983716233943</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>108</v>
@@ -5687,19 +5687,19 @@
         <v>118854</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>103626</v>
+        <v>102422</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>132739</v>
+        <v>132661</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5717812348222392</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4985221385205408</v>
+        <v>0.492728614458329</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6385775895482542</v>
+        <v>0.6382010916628553</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>260</v>
@@ -5708,19 +5708,19 @@
         <v>280439</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>258732</v>
+        <v>256844</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>302805</v>
+        <v>304624</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5617765502836417</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5182939394463669</v>
+        <v>0.5145116797459298</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6065809962156188</v>
+        <v>0.6102244694120623</v>
       </c>
     </row>
     <row r="34">
@@ -5737,19 +5737,19 @@
         <v>91412</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>75554</v>
+        <v>74406</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>108574</v>
+        <v>107918</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3137698857215303</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2593398296170655</v>
+        <v>0.2553983931590847</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.372681197394667</v>
+        <v>0.370427683292656</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>56</v>
@@ -5758,19 +5758,19 @@
         <v>61268</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>48866</v>
+        <v>48509</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>75515</v>
+        <v>75806</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2947445456740396</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2350810689514934</v>
+        <v>0.2333655948660796</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3632834473174681</v>
+        <v>0.3646843440010988</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>137</v>
@@ -5779,19 +5779,19 @@
         <v>152679</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>131601</v>
+        <v>131554</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>176021</v>
+        <v>177271</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3058477219432065</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2636239896840467</v>
+        <v>0.2635303593487083</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3526071327280129</v>
+        <v>0.3551105050394425</v>
       </c>
     </row>
     <row r="35">
@@ -5883,19 +5883,19 @@
         <v>235777</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>209006</v>
+        <v>207030</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>266579</v>
+        <v>265943</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1752644103548555</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1553640173244696</v>
+        <v>0.1538950275768178</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1981608244596898</v>
+        <v>0.1976879200516377</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>128</v>
@@ -5904,19 +5904,19 @@
         <v>138279</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>117172</v>
+        <v>116873</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>161993</v>
+        <v>162456</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.141919711912617</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1202568739081855</v>
+        <v>0.1199499819939584</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1662581312029327</v>
+        <v>0.1667334599107327</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>353</v>
@@ -5925,19 +5925,19 @@
         <v>374056</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>338399</v>
+        <v>337193</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>412575</v>
+        <v>412364</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1612580646001131</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1458859846624034</v>
+        <v>0.1453661299553917</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1778637441159245</v>
+        <v>0.1777727719756548</v>
       </c>
     </row>
     <row r="37">
@@ -5954,19 +5954,19 @@
         <v>624540</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>589678</v>
+        <v>587150</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>663957</v>
+        <v>663730</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.464250229506671</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4383353190793478</v>
+        <v>0.4364565723553414</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4935503632000913</v>
+        <v>0.4933820399796557</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>441</v>
@@ -5975,19 +5975,19 @@
         <v>475773</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>443189</v>
+        <v>443753</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>509855</v>
+        <v>505188</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4882997793712865</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4548579149151252</v>
+        <v>0.4554359785012653</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5232782287392405</v>
+        <v>0.5184883412680703</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1032</v>
@@ -5996,19 +5996,19 @@
         <v>1100313</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1054164</v>
+        <v>1051543</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1155829</v>
+        <v>1148689</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4743521745350007</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4544567491755678</v>
+        <v>0.4533271138881552</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4982854675637208</v>
+        <v>0.4952069684298864</v>
       </c>
     </row>
     <row r="38">
@@ -6025,19 +6025,19 @@
         <v>484949</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>448894</v>
+        <v>448119</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>521187</v>
+        <v>521883</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3604853601384734</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3336842003960143</v>
+        <v>0.333108336953014</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3874226524558166</v>
+        <v>0.3879401465009121</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>327</v>
@@ -6046,19 +6046,19 @@
         <v>360295</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>329950</v>
+        <v>330933</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>392800</v>
+        <v>391663</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3697805087160964</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3386371341415892</v>
+        <v>0.3396460255549702</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4031416872870029</v>
+        <v>0.4019749030341623</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>772</v>
@@ -6067,19 +6067,19 @@
         <v>845243</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>790142</v>
+        <v>796509</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>891406</v>
+        <v>891669</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3643897608648862</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.340635428268086</v>
+        <v>0.3433799684295553</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.384290924277949</v>
+        <v>0.3844042961571777</v>
       </c>
     </row>
     <row r="39">
@@ -6415,19 +6415,19 @@
         <v>22209</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14080</v>
+        <v>14373</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32423</v>
+        <v>32275</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2125457928680541</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1347534695945979</v>
+        <v>0.1375527736434803</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3103014494023381</v>
+        <v>0.3088793113086717</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -6436,19 +6436,19 @@
         <v>8108</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4266</v>
+        <v>3796</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14096</v>
+        <v>14142</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1099917231695073</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05786981116374013</v>
+        <v>0.05150210329932931</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1912279623749571</v>
+        <v>0.1918555584696817</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -6457,19 +6457,19 @@
         <v>30317</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20825</v>
+        <v>20821</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41158</v>
+        <v>41655</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1701244940813849</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1168602965204903</v>
+        <v>0.1168365724187813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2309598017635255</v>
+        <v>0.2337468071832604</v>
       </c>
     </row>
     <row r="5">
@@ -6486,19 +6486,19 @@
         <v>32875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22382</v>
+        <v>24200</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42487</v>
+        <v>44886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3146257735278549</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2141977507744102</v>
+        <v>0.2316029531888525</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4066102370991824</v>
+        <v>0.4295699867468936</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -6507,19 +6507,19 @@
         <v>17421</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10482</v>
+        <v>10680</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25531</v>
+        <v>25970</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2363374086155219</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1421919878987728</v>
+        <v>0.1448901647546818</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3463540482724504</v>
+        <v>0.3523028695401842</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -6528,19 +6528,19 @@
         <v>50297</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38854</v>
+        <v>37830</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65168</v>
+        <v>63314</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2822419380620554</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2180331824788227</v>
+        <v>0.2122867561348881</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3656910179045118</v>
+        <v>0.355291221341787</v>
       </c>
     </row>
     <row r="6">
@@ -6557,19 +6557,19 @@
         <v>49406</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38821</v>
+        <v>39246</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60572</v>
+        <v>61195</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4728284336040909</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3715310777895404</v>
+        <v>0.3755961736163627</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5796930025268107</v>
+        <v>0.585653892687351</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -6578,19 +6578,19 @@
         <v>48185</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39825</v>
+        <v>39744</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56116</v>
+        <v>55825</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6536708682149709</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5402696267763213</v>
+        <v>0.5391607269214416</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7612612739191597</v>
+        <v>0.7573169303661017</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -6599,19 +6599,19 @@
         <v>97590</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>83357</v>
+        <v>83616</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>112009</v>
+        <v>111987</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5476335678565596</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4677638177372702</v>
+        <v>0.469216671666997</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6285456978295283</v>
+        <v>0.62841981760983</v>
       </c>
     </row>
     <row r="7">
@@ -6703,19 +6703,19 @@
         <v>11140</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5883</v>
+        <v>5290</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19839</v>
+        <v>20265</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05355252801128989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0282785782033283</v>
+        <v>0.02542951443659713</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0953671139911168</v>
+        <v>0.09741757108056623</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -6724,19 +6724,19 @@
         <v>7035</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3000</v>
+        <v>2973</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14398</v>
+        <v>13371</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05033029817629282</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02146153593635861</v>
+        <v>0.02126859554037546</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1030160957277903</v>
+        <v>0.09566492827779889</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -6745,19 +6745,19 @@
         <v>18175</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10804</v>
+        <v>10234</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27401</v>
+        <v>28186</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05225760242531816</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03106455261968518</v>
+        <v>0.02942605282801086</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07878445029947534</v>
+        <v>0.08104317880910458</v>
       </c>
     </row>
     <row r="9">
@@ -6774,19 +6774,19 @@
         <v>151641</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>138170</v>
+        <v>138338</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>164088</v>
+        <v>162854</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7289570505998664</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.664198109937269</v>
+        <v>0.6650044754199265</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7887883094455453</v>
+        <v>0.7828597803208863</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>88</v>
@@ -6795,19 +6795,19 @@
         <v>91582</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>80325</v>
+        <v>78682</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>104199</v>
+        <v>102444</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6552392576923513</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5746981073635331</v>
+        <v>0.5629450000608991</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7455088231340927</v>
+        <v>0.7329514546558956</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>229</v>
@@ -6816,19 +6816,19 @@
         <v>243223</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>225246</v>
+        <v>224449</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>261064</v>
+        <v>258876</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6993318962609321</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6476433055607147</v>
+        <v>0.6453534267127418</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7506312852096119</v>
+        <v>0.7443392744770623</v>
       </c>
     </row>
     <row r="10">
@@ -6845,19 +6845,19 @@
         <v>45243</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34234</v>
+        <v>34635</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57931</v>
+        <v>58098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2174904213888438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1645647706791776</v>
+        <v>0.1664944913424338</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.278482039449532</v>
+        <v>0.2792838407628903</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -6866,19 +6866,19 @@
         <v>41152</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29719</v>
+        <v>30772</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52346</v>
+        <v>54020</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2944304441313559</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2126275527604051</v>
+        <v>0.22016510148168</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3745203572267963</v>
+        <v>0.386498055574196</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -6887,19 +6887,19 @@
         <v>86395</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70327</v>
+        <v>72357</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104738</v>
+        <v>105791</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2484105013137498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2022086918131312</v>
+        <v>0.2080458971542669</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3011495300611771</v>
+        <v>0.3041787337410052</v>
       </c>
     </row>
     <row r="11">
@@ -6991,19 +6991,19 @@
         <v>3066</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8414</v>
+        <v>8991</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03182363892552014</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00895308860260682</v>
+        <v>0.008940268822434374</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08734847931519818</v>
+        <v>0.09333062727841367</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -7012,19 +7012,19 @@
         <v>3834</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10083</v>
+        <v>9270</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04710044761310057</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01239318267059773</v>
+        <v>0.01218300073372853</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1238687649520581</v>
+        <v>0.1138744500597983</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -7033,19 +7033,19 @@
         <v>6900</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2890</v>
+        <v>2883</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13407</v>
+        <v>13905</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03882050516823592</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01625909314062887</v>
+        <v>0.01622080162758847</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07543307569291517</v>
+        <v>0.07823537566249666</v>
       </c>
     </row>
     <row r="13">
@@ -7062,19 +7062,19 @@
         <v>48782</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39330</v>
+        <v>39351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57753</v>
+        <v>58344</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5063949442159384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4082794378448955</v>
+        <v>0.408495501672011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5995272728618134</v>
+        <v>0.6056620060369726</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -7083,19 +7083,19 @@
         <v>39010</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30279</v>
+        <v>30577</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48175</v>
+        <v>47995</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4792179251630393</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3719596158936422</v>
+        <v>0.3756200627291543</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.591803507083035</v>
+        <v>0.5896015970855394</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -7104,19 +7104,19 @@
         <v>87791</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>74375</v>
+        <v>74205</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100147</v>
+        <v>100397</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4939477131824397</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4184609446218441</v>
+        <v>0.417506969328034</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.563465158038489</v>
+        <v>0.5648714930392941</v>
       </c>
     </row>
     <row r="14">
@@ -7133,19 +7133,19 @@
         <v>44484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35820</v>
+        <v>34829</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54392</v>
+        <v>53652</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4617814168585414</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3718467374498906</v>
+        <v>0.3615600328559546</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5646364780282935</v>
+        <v>0.5569543435270433</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>39</v>
@@ -7154,19 +7154,19 @@
         <v>38559</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29399</v>
+        <v>29995</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47525</v>
+        <v>46901</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4736816272238601</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.361151493406643</v>
+        <v>0.3684804333966037</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5838294163878545</v>
+        <v>0.5761564070376242</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>84</v>
@@ -7175,19 +7175,19 @@
         <v>83043</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>70078</v>
+        <v>70610</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>96566</v>
+        <v>96807</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4672317816493243</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3942877345706367</v>
+        <v>0.3972775571447462</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5433157853603002</v>
+        <v>0.5446738743393335</v>
       </c>
     </row>
     <row r="15">
@@ -7279,19 +7279,19 @@
         <v>29046</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20518</v>
+        <v>19444</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40762</v>
+        <v>39445</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2085350759093454</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1473088417412445</v>
+        <v>0.1395969438095703</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2926466359203223</v>
+        <v>0.2831949289428122</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -7300,19 +7300,19 @@
         <v>10151</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5333</v>
+        <v>5081</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18217</v>
+        <v>17641</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0950356940563853</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04992647283880087</v>
+        <v>0.04756961979101921</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1705518755967478</v>
+        <v>0.165159685631759</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -7321,19 +7321,19 @@
         <v>39197</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28142</v>
+        <v>28967</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51824</v>
+        <v>50803</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1592742662669768</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1143542382264721</v>
+        <v>0.1177058498200327</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2105839325482959</v>
+        <v>0.2064333290290555</v>
       </c>
     </row>
     <row r="17">
@@ -7350,19 +7350,19 @@
         <v>51504</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40768</v>
+        <v>39884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>64367</v>
+        <v>65122</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3697692675007692</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2926879216137762</v>
+        <v>0.2863410490950957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4621180408202709</v>
+        <v>0.4675407433352209</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -7371,19 +7371,19 @@
         <v>45104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34700</v>
+        <v>34646</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56584</v>
+        <v>55251</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4222821989069944</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.324874320211438</v>
+        <v>0.3243673929297485</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5297598721971694</v>
+        <v>0.5172778863453652</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>92</v>
@@ -7392,19 +7392,19 @@
         <v>96608</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>79376</v>
+        <v>81066</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>110529</v>
+        <v>113378</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3925608411246334</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3225399568737636</v>
+        <v>0.3294076947666107</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4491270866922112</v>
+        <v>0.4607064728040994</v>
       </c>
     </row>
     <row r="18">
@@ -7421,19 +7421,19 @@
         <v>58737</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46751</v>
+        <v>46442</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70414</v>
+        <v>70853</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4216956565898855</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3356470981411456</v>
+        <v>0.3334283965642686</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5055302901251375</v>
+        <v>0.508683692040981</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -7442,19 +7442,19 @@
         <v>51556</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40583</v>
+        <v>41553</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>62014</v>
+        <v>62285</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4826821070366202</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3799526765637443</v>
+        <v>0.3890328584771431</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5805925242686489</v>
+        <v>0.5831344172040258</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>99</v>
@@ -7463,19 +7463,19 @@
         <v>110292</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>94086</v>
+        <v>94668</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>129470</v>
+        <v>125971</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4481648926083898</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3823115994842028</v>
+        <v>0.3846779116443935</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5260913606119589</v>
+        <v>0.5118762659831687</v>
       </c>
     </row>
     <row r="19">
@@ -7614,19 +7614,19 @@
         <v>48542</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>39963</v>
+        <v>39056</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>56468</v>
+        <v>57130</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6136567503201585</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5052046185956338</v>
+        <v>0.4937411706559225</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7138540223492222</v>
+        <v>0.7222191133913696</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -7635,19 +7635,19 @@
         <v>24478</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16976</v>
+        <v>17539</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31332</v>
+        <v>31354</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4386730040377698</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3042346034220856</v>
+        <v>0.3143217715013993</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5615037015344959</v>
+        <v>0.5618999860493636</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>73</v>
@@ -7656,19 +7656,19 @@
         <v>73020</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>61996</v>
+        <v>61400</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>84636</v>
+        <v>84313</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5412782627305706</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4595610367598585</v>
+        <v>0.4551440674390245</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6273815213935776</v>
+        <v>0.6249886465651188</v>
       </c>
     </row>
     <row r="22">
@@ -7685,19 +7685,19 @@
         <v>30561</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22635</v>
+        <v>21973</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39140</v>
+        <v>40047</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3863432496798415</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2861459776507778</v>
+        <v>0.2777808866086304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4947953814043661</v>
+        <v>0.5062588293440775</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -7706,19 +7706,19 @@
         <v>31322</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24468</v>
+        <v>24446</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38824</v>
+        <v>38261</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5613269959622302</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4384962984655041</v>
+        <v>0.4381000139506363</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6957653965779145</v>
+        <v>0.6856782284986006</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>62</v>
@@ -7727,19 +7727,19 @@
         <v>61883</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50267</v>
+        <v>50590</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72907</v>
+        <v>73503</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4587217372694294</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3726184786064221</v>
+        <v>0.3750113534348811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5404389632401414</v>
+        <v>0.5448559325609755</v>
       </c>
     </row>
     <row r="23">
@@ -7831,19 +7831,19 @@
         <v>15632</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8996</v>
+        <v>9228</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23307</v>
+        <v>24081</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1771695208155332</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1019603192272924</v>
+        <v>0.1045876607516147</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.264160556702329</v>
+        <v>0.2729300973953708</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -7852,19 +7852,19 @@
         <v>5674</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2662</v>
+        <v>1921</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11558</v>
+        <v>10970</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07875859269124282</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0369524566556471</v>
+        <v>0.02666290721872161</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1604413680980347</v>
+        <v>0.1522765117275336</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -7873,19 +7873,19 @@
         <v>21305</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13865</v>
+        <v>13553</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31136</v>
+        <v>30928</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1329346797608739</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08650924861623141</v>
+        <v>0.08456614718418178</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1942747259379264</v>
+        <v>0.1929746262901276</v>
       </c>
     </row>
     <row r="25">
@@ -7902,19 +7902,19 @@
         <v>51087</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42397</v>
+        <v>41608</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60406</v>
+        <v>60387</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5790165799149577</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4805331707713686</v>
+        <v>0.4715839209746402</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6846396168020823</v>
+        <v>0.684428981327444</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -7923,19 +7923,19 @@
         <v>56821</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49179</v>
+        <v>49276</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62833</v>
+        <v>62764</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7887387076511443</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6826643133838407</v>
+        <v>0.684013183383842</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8721984763117122</v>
+        <v>0.8712450324941676</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>104</v>
@@ -7944,19 +7944,19 @@
         <v>107907</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>95265</v>
+        <v>95602</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>119031</v>
+        <v>118573</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6732848198642702</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5944006986286068</v>
+        <v>0.5965050173281528</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7426908564682849</v>
+        <v>0.7398352943562471</v>
       </c>
     </row>
     <row r="26">
@@ -7973,19 +7973,19 @@
         <v>21512</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14329</v>
+        <v>13983</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29923</v>
+        <v>29782</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2438138992695092</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1624046866828763</v>
+        <v>0.1584889011945228</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3391478645861052</v>
+        <v>0.337549734569241</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -7994,19 +7994,19 @@
         <v>9545</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4857</v>
+        <v>4722</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16908</v>
+        <v>16761</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1325026996576129</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0674148721285705</v>
+        <v>0.06554220195099618</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2347072462649913</v>
+        <v>0.2326624562624737</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -8015,19 +8015,19 @@
         <v>31057</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22002</v>
+        <v>21837</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42436</v>
+        <v>41455</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1937805003748558</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1372781345011669</v>
+        <v>0.1362535652118248</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2647808912485598</v>
+        <v>0.2586560800161623</v>
       </c>
     </row>
     <row r="27">
@@ -8119,19 +8119,19 @@
         <v>77941</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>63745</v>
+        <v>62775</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>92934</v>
+        <v>91806</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3961859892588634</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3240244739309545</v>
+        <v>0.3190912998243057</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4723978394080159</v>
+        <v>0.4666632255433855</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>60</v>
@@ -8140,19 +8140,19 @@
         <v>61154</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>48394</v>
+        <v>49598</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>74402</v>
+        <v>74091</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3548428269835296</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2808057275617815</v>
+        <v>0.2877918701073183</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4317152397835684</v>
+        <v>0.429912661439181</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>127</v>
@@ -8161,19 +8161,19 @@
         <v>139095</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>122072</v>
+        <v>118978</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>159339</v>
+        <v>158558</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3768804396431073</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3307576731643208</v>
+        <v>0.3223733202317917</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4317328044663241</v>
+        <v>0.4296168310982334</v>
       </c>
     </row>
     <row r="29">
@@ -8190,19 +8190,19 @@
         <v>42380</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>30189</v>
+        <v>32013</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55643</v>
+        <v>54950</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2154237358507246</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1534525992911964</v>
+        <v>0.1627248120043222</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2828404764419493</v>
+        <v>0.279316627836748</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>42</v>
@@ -8211,19 +8211,19 @@
         <v>43988</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33408</v>
+        <v>32793</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>57600</v>
+        <v>56073</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2552419037546143</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.193852066035457</v>
+        <v>0.1902825962464974</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3342234041625485</v>
+        <v>0.325360652178571</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>78</v>
@@ -8232,19 +8232,19 @@
         <v>86368</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>70831</v>
+        <v>70155</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>105273</v>
+        <v>105393</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2340171760660049</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1919182446255502</v>
+        <v>0.1900856074737678</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.28524137194436</v>
+        <v>0.2855643988656271</v>
       </c>
     </row>
     <row r="30">
@@ -8261,19 +8261,19 @@
         <v>76408</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>61895</v>
+        <v>62883</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>90801</v>
+        <v>91279</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3883902748904119</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3146226427122317</v>
+        <v>0.3196439462990061</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4615517469727662</v>
+        <v>0.4639825096044212</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>64</v>
@@ -8282,19 +8282,19 @@
         <v>67198</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>52782</v>
+        <v>53508</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>79385</v>
+        <v>79019</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.389915269261856</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3062672560548037</v>
+        <v>0.3104815416811047</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4606315329040854</v>
+        <v>0.4585080726893832</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>129</v>
@@ -8303,19 +8303,19 @@
         <v>143605</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>122767</v>
+        <v>124997</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>162704</v>
+        <v>165034</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3891023842908878</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3326417307998979</v>
+        <v>0.3386840681012246</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4408511042833954</v>
+        <v>0.4471653430166223</v>
       </c>
     </row>
     <row r="31">
@@ -8407,19 +8407,19 @@
         <v>17697</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10726</v>
+        <v>10490</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>28238</v>
+        <v>27938</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0705038618430977</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04272909074232993</v>
+        <v>0.04178859698058504</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1124944373780678</v>
+        <v>0.1112997701961619</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -8428,19 +8428,19 @@
         <v>27330</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18880</v>
+        <v>18450</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>37659</v>
+        <v>38163</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1375976313238244</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09505501408869786</v>
+        <v>0.09289263987051291</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1896025963771556</v>
+        <v>0.1921390081941159</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>43</v>
@@ -8449,19 +8449,19 @@
         <v>45027</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>33160</v>
+        <v>32929</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>58879</v>
+        <v>57547</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1001416654121925</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07374823410491763</v>
+        <v>0.07323542115664738</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1309489478593713</v>
+        <v>0.1279871805595243</v>
       </c>
     </row>
     <row r="33">
@@ -8478,19 +8478,19 @@
         <v>143096</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>126813</v>
+        <v>127398</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>158733</v>
+        <v>158025</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5700714923062856</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5052036186168227</v>
+        <v>0.507533709384531</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6323690069554591</v>
+        <v>0.6295460349894553</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>102</v>
@@ -8499,19 +8499,19 @@
         <v>106767</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>93070</v>
+        <v>92363</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>121763</v>
+        <v>120618</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.5375460414288559</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4685812616790576</v>
+        <v>0.465025252500513</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.6130474769140219</v>
+        <v>0.6072785431470399</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>236</v>
@@ -8520,19 +8520,19 @@
         <v>249863</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>227593</v>
+        <v>230719</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>270683</v>
+        <v>272018</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5557037956995475</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5061737792875777</v>
+        <v>0.5131263007970285</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6020078615678113</v>
+        <v>0.6049772966472353</v>
       </c>
     </row>
     <row r="34">
@@ -8549,19 +8549,19 @@
         <v>90221</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>76616</v>
+        <v>75253</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>107406</v>
+        <v>105768</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3594246458506167</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3052267310728179</v>
+        <v>0.2997956773640497</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4278901602605725</v>
+        <v>0.4213647395543541</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>60</v>
@@ -8570,19 +8570,19 @@
         <v>64523</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>51227</v>
+        <v>51318</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>78321</v>
+        <v>79953</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3248563272473197</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.257915160034313</v>
+        <v>0.2583725852265076</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3943249390390042</v>
+        <v>0.4025401769331504</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>146</v>
@@ -8591,19 +8591,19 @@
         <v>154744</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>135292</v>
+        <v>134518</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>177363</v>
+        <v>172450</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.34415453888826</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3008936615947251</v>
+        <v>0.2991712714425419</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3944617863196501</v>
+        <v>0.3835345853099364</v>
       </c>
     </row>
     <row r="35">
@@ -8695,19 +8695,19 @@
         <v>176731</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>152980</v>
+        <v>151118</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>203486</v>
+        <v>202284</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1519343472266239</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1315156396427168</v>
+        <v>0.1299148401054538</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1749354134471782</v>
+        <v>0.1739017627151984</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>123</v>
@@ -8716,19 +8716,19 @@
         <v>123284</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>102790</v>
+        <v>105396</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>144968</v>
+        <v>144889</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1369072363717772</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1141488213735626</v>
+        <v>0.11704217979521</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1609868426636065</v>
+        <v>0.1608995534570556</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>281</v>
@@ -8737,19 +8737,19 @@
         <v>300016</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>268503</v>
+        <v>267939</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>335881</v>
+        <v>333096</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1453772779784554</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1301072980887817</v>
+        <v>0.1298338536940984</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1627565454991253</v>
+        <v>0.1614068919776242</v>
       </c>
     </row>
     <row r="37">
@@ -8766,19 +8766,19 @@
         <v>569906</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>536453</v>
+        <v>532306</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>604517</v>
+        <v>603393</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4899436880882839</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4611841731959792</v>
+        <v>0.4576196457150367</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5196982006597394</v>
+        <v>0.5187318603459954</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>414</v>
@@ -8787,19 +8787,19 @@
         <v>425171</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>397700</v>
+        <v>394990</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>457102</v>
+        <v>453545</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4721528630872276</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4416464922533834</v>
+        <v>0.4386368962708019</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5076124031934357</v>
+        <v>0.5036615423456181</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>949</v>
@@ -8808,19 +8808,19 @@
         <v>995078</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>950091</v>
+        <v>947130</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1041375</v>
+        <v>1042130</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4821806741170155</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4603815872258197</v>
+        <v>0.4589469119601337</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5046147306977161</v>
+        <v>0.5049807777257515</v>
       </c>
     </row>
     <row r="38">
@@ -8837,19 +8837,19 @@
         <v>416570</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>384139</v>
+        <v>383927</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>451838</v>
+        <v>448609</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3581219646850922</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3302412866564668</v>
+        <v>0.3300593345369534</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3884417437453662</v>
+        <v>0.3856654555409252</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>335</v>
@@ -8858,19 +8858,19 @@
         <v>352039</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>321722</v>
+        <v>324321</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>381284</v>
+        <v>380309</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3909399005409953</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3572726392827607</v>
+        <v>0.3601582612404701</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4234159586793076</v>
+        <v>0.4223338063547985</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>723</v>
@@ -8879,19 +8879,19 @@
         <v>768610</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>724028</v>
+        <v>725121</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>815649</v>
+        <v>813407</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3724420479045291</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3508392475666237</v>
+        <v>0.3513687877546574</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3952358014306938</v>
+        <v>0.3941490634660501</v>
       </c>
     </row>
     <row r="39">
